--- a/3.G_Documents/4.Tài liệu/TrackerDocs.xlsx
+++ b/3.G_Documents/4.Tài liệu/TrackerDocs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\3.G_Documents\4.Tài liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C412D75-3FD7-48FA-9177-B43ACAD4C3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D87E39-5EDC-416C-86A7-A7CD348E608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B1651102-A924-47AC-8049-DF1B6F725B88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B1651102-A924-47AC-8049-DF1B6F725B88}"/>
   </bookViews>
   <sheets>
     <sheet name="Link" sheetId="5" r:id="rId1"/>
@@ -19,19 +19,10 @@
     <sheet name="Server" sheetId="2" r:id="rId4"/>
     <sheet name="AdminPhone" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -737,68 +728,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1117,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023FAA11-735F-4D39-A3E2-7886EFB510B2}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,30 +1119,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1165,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC93661-2AA2-4D45-96B2-28730F188A89}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1205,7 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1228,7 +1219,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1240,7 +1231,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1256,7 +1247,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1471,7 +1462,7 @@
       <c r="E19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1547,28 +1538,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="16">
         <v>50</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1576,10 +1567,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="16">
         <v>51</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1587,10 +1578,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="16">
         <v>52</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1598,10 +1589,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="16">
         <v>55</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1609,10 +1600,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="16">
         <v>60</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="16" t="s">
         <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1620,10 +1611,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="16">
         <v>61</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="16" t="s">
         <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1631,10 +1622,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="16">
         <v>62</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="16" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1642,10 +1633,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="16">
         <v>80</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1678,252 +1669,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="2">
         <v>14040</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="2">
         <v>14242</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="2">
         <v>14747</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="18" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="2">
         <v>15050</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="2">
         <v>15353</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="2">
         <v>15454</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="2">
         <v>15555</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="2">
         <v>15757</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="2">
         <v>15959</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="18" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="2">
         <v>16060</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="2">
         <v>16363</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="2">
         <v>16464</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="2">
         <v>16565</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="2">
         <v>16767</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="2">
         <v>16969</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="18" t="s">
         <v>81</v>
       </c>
       <c r="D18" s="2">
         <v>13030</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="14">
         <v>13232</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
@@ -1934,8 +1925,8 @@
       <c r="D20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -1943,11 +1934,11 @@
         <v>85</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1960,20 +1951,20 @@
       <c r="D22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2013,16 +2004,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2030,13 +2021,13 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <v>45125</v>
       </c>
     </row>
@@ -2044,7 +2035,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2056,13 +2047,13 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>45127</v>
       </c>
     </row>
@@ -2070,27 +2061,27 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>45128</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2104,7 +2095,7 @@
       <c r="C7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>45125</v>
       </c>
     </row>
@@ -2121,40 +2112,40 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.G_Documents/4.Tài liệu/TrackerDocs.xlsx
+++ b/3.G_Documents/4.Tài liệu/TrackerDocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\3.G_Documents\4.Tài liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D87E39-5EDC-416C-86A7-A7CD348E608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5245F0E-7480-4C64-998A-7FF8038F4417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B1651102-A924-47AC-8049-DF1B6F725B88}"/>
   </bookViews>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
